--- a/documentation/User Stories.xlsx
+++ b/documentation/User Stories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marconatale/Desktop/Università/Magistrale/CryptoBallot/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6255D203-F18E-F342-9A05-6134BE0071BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12164676-5C0D-884D-AEED-521F6DC70F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="520" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/documentation/User Stories.xlsx
+++ b/documentation/User Stories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\Documents\Università\CryptoBallot\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D361B977-441B-4F18-935F-F6D8717137BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C3DF4B-BD79-49C4-AB4E-6FC7389F6A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/documentation/User Stories.xlsx
+++ b/documentation/User Stories.xlsx
@@ -174,7 +174,7 @@
     <t>Wallet Connection</t>
   </si>
   <si>
-    <t>As a USER, I want to be able to connect my wallet, so that I can cast my votes</t>
+    <t>As a USER, I want to be able to connect my wallet, so that I can create ballots and cast my votes</t>
   </si>
   <si>
     <t xml:space="preserve">1) the user can </t>
@@ -257,7 +257,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,6 +275,12 @@
       <sz val="8"/>
       <color rgb="FFefefef"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -410,6 +416,13 @@
       <bottom style="thin">
         <color rgb="FF999999"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -785,13 +798,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFc6c6c6"/>
       </left>
@@ -827,88 +833,88 @@
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="6" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="21" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="21" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="22" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="22" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="23" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="23" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="24" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="25" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="25" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="26" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="26" applyBorder="1" fontId="6" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="27" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="27" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="28" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="28" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="29" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="29" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="30" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -917,61 +923,61 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="30" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="31" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="30" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="31" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="31" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="32" applyBorder="1" fontId="8" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="32" applyBorder="1" fontId="9" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="33" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="33" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="30" applyBorder="1" fontId="9" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="31" applyBorder="1" fontId="10" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="30" applyBorder="1" fontId="10" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="31" applyBorder="1" fontId="11" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="30" applyBorder="1" fontId="10" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="31" applyBorder="1" fontId="11" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="30" applyBorder="1" fontId="10" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="31" applyBorder="1" fontId="11" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="30" applyBorder="1" fontId="10" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="31" applyBorder="1" fontId="11" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="30" applyBorder="1" fontId="10" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="31" applyBorder="1" fontId="11" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="31" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="32" applyBorder="1" fontId="8" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="32" applyBorder="1" fontId="9" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="31" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="31" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="33" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="33" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="30" applyBorder="1" fontId="10" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="31" applyBorder="1" fontId="11" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="32" applyBorder="1" fontId="8" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="32" applyBorder="1" fontId="9" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="30" applyBorder="1" fontId="11" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="31" applyBorder="1" fontId="12" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
